--- a/Vegetation/Vegetationsaufnahmen.xlsx
+++ b/Vegetation/Vegetationsaufnahmen.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nele\OneDrive - Technische Universität Ilmenau\Dokumente\Moore-Lichtenau-Meusebach\Vegetation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{339D822A-9E8E-4199-B4B8-755EDBDC32C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D896F4DC-34E6-4C9F-8214-664CF55E12A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BA40F2D0-6DB1-470F-8AFA-5C112515A5B6}"/>
+    <workbookView xWindow="30" yWindow="0" windowWidth="18045" windowHeight="15600" activeTab="1" xr2:uid="{BA40F2D0-6DB1-470F-8AFA-5C112515A5B6}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="2" r:id="rId1"/>
@@ -26,12 +26,63 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Jedes Tabellenblatt enthält die Vegetationsaufnahmen einer Fläche</t>
   </si>
   <si>
     <t>Die Benennung der Plots folgt dem folgenden Muster</t>
+  </si>
+  <si>
+    <t>S-&gt;N, W-&gt;O</t>
+  </si>
+  <si>
+    <t xml:space="preserve">plot </t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>WM1</t>
+  </si>
+  <si>
+    <t>Pinus_sylvestris_TL</t>
+  </si>
+  <si>
+    <t>Pinus_sylvestris_HL</t>
+  </si>
+  <si>
+    <t>Picea_abies</t>
+  </si>
+  <si>
+    <t>Picea_abies_SL</t>
+  </si>
+  <si>
+    <t>Molinia_caerulea_HL</t>
+  </si>
+  <si>
+    <t>M1_ML</t>
+  </si>
+  <si>
+    <t>Pteridium_aquilinum_HL</t>
+  </si>
+  <si>
+    <t>Vaccinium_myrtillus_HL</t>
+  </si>
+  <si>
+    <t>Betula_pendula_SL</t>
+  </si>
+  <si>
+    <t>M2_ML</t>
+  </si>
+  <si>
+    <t>Betula_HL</t>
+  </si>
+  <si>
+    <t>Frangula_alnus_HL</t>
+  </si>
+  <si>
+    <t>Frangula_alnus_SL</t>
   </si>
 </sst>
 </file>
@@ -383,10 +434,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B6590AD-0C87-40E0-AE10-BD31F2D90161}">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -401,6 +452,11 @@
         <v>1</v>
       </c>
     </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
@@ -408,14 +464,815 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EA53AA6-CD79-4BCC-9A1C-7C148FF93F1C}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:O151"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M1" t="s">
+        <v>16</v>
+      </c>
+      <c r="N1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A136">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A137">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A138">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A139">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A140">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A141">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A142">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A143">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A144">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A145">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A146">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A147">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A148">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A149">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A150">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A151">
+        <v>150</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Vegetation/Vegetationsaufnahmen.xlsx
+++ b/Vegetation/Vegetationsaufnahmen.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nele\OneDrive - Technische Universität Ilmenau\Dokumente\Moore-Lichtenau-Meusebach\Vegetation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D896F4DC-34E6-4C9F-8214-664CF55E12A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B466446-5D0D-4EB7-BE96-32F708E677DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30" yWindow="0" windowWidth="18045" windowHeight="15600" activeTab="1" xr2:uid="{BA40F2D0-6DB1-470F-8AFA-5C112515A5B6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{BA40F2D0-6DB1-470F-8AFA-5C112515A5B6}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="2" r:id="rId1"/>
     <sheet name="Meusebach_trocken" sheetId="1" r:id="rId2"/>
+    <sheet name="species_list" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="71">
   <si>
     <t>Jedes Tabellenblatt enthält die Vegetationsaufnahmen einer Fläche</t>
   </si>
@@ -83,19 +84,181 @@
   </si>
   <si>
     <t>Frangula_alnus_SL</t>
+  </si>
+  <si>
+    <t>Dicranum_scoparia_ML</t>
+  </si>
+  <si>
+    <t>Hypnum_jutlandicum_ML</t>
+  </si>
+  <si>
+    <t>Polytrichum_formosum_ML</t>
+  </si>
+  <si>
+    <t>Picea_abies_TL</t>
+  </si>
+  <si>
+    <t>Betula_pendula_TL</t>
+  </si>
+  <si>
+    <t>Pinus_sylvestris_SL</t>
+  </si>
+  <si>
+    <t>Tetraphis_pellucida_ML</t>
+  </si>
+  <si>
+    <t>Dryopteris_carthusiana_HL</t>
+  </si>
+  <si>
+    <t>Hypnum_cupressiforme_ML</t>
+  </si>
+  <si>
+    <t>Sphagnum_fimbriatum_ML</t>
+  </si>
+  <si>
+    <t>Campylopus_flexuosus_ML</t>
+  </si>
+  <si>
+    <t>Campylopus_pyriformis_ML</t>
+  </si>
+  <si>
+    <t>Pohlia_nutans_ML</t>
+  </si>
+  <si>
+    <t>Mnium_hornum_ML</t>
+  </si>
+  <si>
+    <t>Dicranum_flagellare_ML</t>
+  </si>
+  <si>
+    <t>Dicranodontium_denudatum_ML</t>
+  </si>
+  <si>
+    <t>Dicranella_cerviculata_ML</t>
+  </si>
+  <si>
+    <t>Lophocolea_heterophylla_ML</t>
+  </si>
+  <si>
+    <t>Lepidozia_reptans_ML</t>
+  </si>
+  <si>
+    <t>Sphagnum_capillifolium_ML</t>
+  </si>
+  <si>
+    <t>Carex_canescens_HL</t>
+  </si>
+  <si>
+    <t>Carex_nigra_HL</t>
+  </si>
+  <si>
+    <t>Juncus_effusus_HL</t>
+  </si>
+  <si>
+    <t>Calluna_vulgaris_HL</t>
+  </si>
+  <si>
+    <t>Carex_rostrata_HL</t>
+  </si>
+  <si>
+    <t>Deschampsia_cespitosa_HL</t>
+  </si>
+  <si>
+    <t>Digitalis_purpurea_HL</t>
+  </si>
+  <si>
+    <t>Epilobium_angustifolium_HL</t>
+  </si>
+  <si>
+    <t>Juncus_bulbosus_HL</t>
+  </si>
+  <si>
+    <t>Luzula_multiflora_HL</t>
+  </si>
+  <si>
+    <t>Vaccinium_vitis_idaea_HL</t>
+  </si>
+  <si>
+    <t>Agrostis_capillaris_HL</t>
+  </si>
+  <si>
+    <t>Agrostis_stolonifera_HL</t>
+  </si>
+  <si>
+    <t>Brachypodium_sylvaticum_HL</t>
+  </si>
+  <si>
+    <t>Calamagrostis_epigejos_HL</t>
+  </si>
+  <si>
+    <t>Carex_echinata_HL</t>
+  </si>
+  <si>
+    <t>Carex_pilulifera_HL</t>
+  </si>
+  <si>
+    <t>Eriophorum_angustifolium_HL</t>
+  </si>
+  <si>
+    <t>Holcus_lanatus_HL</t>
+  </si>
+  <si>
+    <t>Luzula_pilosa_HL</t>
+  </si>
+  <si>
+    <t>Schedonorus_giganteus_HL</t>
+  </si>
+  <si>
+    <t>Quercus_robur_HL</t>
+  </si>
+  <si>
+    <t>Fagus_sylvatica_SL</t>
+  </si>
+  <si>
+    <t>Lycogala_epidendrum</t>
+  </si>
+  <si>
+    <t>Vaccinium_oxycoccos_HL</t>
+  </si>
+  <si>
+    <t>Salix_aurita_HL</t>
+  </si>
+  <si>
+    <t>Lycopus_europaeus_HL</t>
+  </si>
+  <si>
+    <t>Callitriche_palustris_HL</t>
+  </si>
+  <si>
+    <t>Scrophularia_nodosa_HL</t>
+  </si>
+  <si>
+    <t>Salix_aurita_SL</t>
+  </si>
+  <si>
+    <t>Betula_pubescens_SL</t>
+  </si>
+  <si>
+    <t>Rubus_sp_HL</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -118,8 +281,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -466,8 +631,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EA53AA6-CD79-4BCC-9A1C-7C148FF93F1C}">
   <dimension ref="A1:O151"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:P2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1275,4 +1440,336 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B88C2D82-D1FC-4496-8C8A-2C4E44900208}">
+  <dimension ref="A1:A62"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B55" sqref="B55"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="31.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:A62">
+    <sortCondition ref="A25:A62"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="11" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Vegetation/Vegetationsaufnahmen.xlsx
+++ b/Vegetation/Vegetationsaufnahmen.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="176">
   <si>
     <t xml:space="preserve">Jedes Tabellenblatt enthält die Vegetationsaufnahmen einer Fläche</t>
   </si>
@@ -42,10 +42,13 @@
     <t xml:space="preserve">Cover pro Layer?</t>
   </si>
   <si>
-    <t xml:space="preserve">plot </t>
-  </si>
-  <si>
-    <t xml:space="preserve">name</t>
+    <t xml:space="preserve">plot ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">arbeitsname</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Name</t>
   </si>
   <si>
     <t xml:space="preserve">Molinia_caerulea_HL</t>
@@ -88,6 +91,246 @@
   </si>
   <si>
     <t xml:space="preserve">WM1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MT1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MT2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MT3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MT4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MT5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MT6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MT7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MT8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MT9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MT10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MT11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MT12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MT13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MT14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MT15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MT16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MT17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MT18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MT19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MT20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MT21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MT22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MT23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MT24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MT25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MT26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MT27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MT28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MT29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MT30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MT31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MT32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MT33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MT34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MT35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MT36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MT37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MT38</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MT39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MT40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MT41</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MT42</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MT43</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MT44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MT45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MT46</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MT47</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MT48</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MT49</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MT50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MT51</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MT52</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MT53</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MT54</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MT55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MT56</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MT57</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MT58</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MT59</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MT60</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MT61</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MT62</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MT63</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MT64</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MT65</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MT66</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MT67</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MT68</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MT69</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MT70</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MT71</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MT72</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MT73</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MT74</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MT75</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MT76</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MT77</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MT78</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MT79</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MT80</t>
   </si>
   <si>
     <t xml:space="preserve">Agrostis_capillaris_HL</t>
@@ -395,8 +638,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -404,11 +651,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -421,23 +668,6 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
 </styleSheet>
 </file>
 
@@ -627,32 +857,32 @@
   <sheetFormatPr defaultColWidth="10.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+      <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+      <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+      <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
     </row>
@@ -672,19 +902,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Z151"/>
+  <dimension ref="A1:AA151"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Q3" activeCellId="0" sqref="Q3"/>
+      <selection pane="topLeft" activeCell="D160" activeCellId="0" sqref="D160"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -726,7 +956,9 @@
       <c r="O1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="P1" s="1"/>
+      <c r="P1" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="Q1" s="1"/>
       <c r="R1" s="1"/>
       <c r="S1" s="1"/>
@@ -737,763 +969,704 @@
       <c r="X1" s="1"/>
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
+      <c r="AA1" s="1"/>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>21</v>
+      <c r="A2" s="1"/>
+      <c r="B2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
-        <v>2</v>
+      <c r="A3" s="1"/>
+      <c r="C3" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
-        <v>3</v>
+      <c r="A4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
-        <v>4</v>
+      <c r="A5" s="1"/>
+      <c r="C5" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
-        <v>5</v>
+      <c r="A6" s="1"/>
+      <c r="C6" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="n">
-        <v>6</v>
+      <c r="A7" s="1"/>
+      <c r="C7" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="n">
-        <v>7</v>
+      <c r="A8" s="1"/>
+      <c r="C8" s="1" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="n">
-        <v>8</v>
+      <c r="A9" s="1"/>
+      <c r="C9" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="n">
-        <v>9</v>
+      <c r="A10" s="1"/>
+      <c r="C10" s="1" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="n">
-        <v>10</v>
+      <c r="A11" s="1"/>
+      <c r="C11" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="n">
-        <v>11</v>
+      <c r="A12" s="1"/>
+      <c r="C12" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="n">
-        <v>12</v>
+      <c r="A13" s="1"/>
+      <c r="C13" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="n">
-        <v>13</v>
+      <c r="A14" s="1"/>
+      <c r="C14" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="n">
-        <v>14</v>
+      <c r="A15" s="1"/>
+      <c r="C15" s="2" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="n">
-        <v>15</v>
+      <c r="A16" s="1"/>
+      <c r="C16" s="1" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="n">
-        <v>16</v>
+      <c r="A17" s="1"/>
+      <c r="C17" s="2" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="n">
-        <v>17</v>
+      <c r="A18" s="1"/>
+      <c r="C18" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="n">
-        <v>18</v>
+      <c r="A19" s="1"/>
+      <c r="C19" s="2" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="n">
-        <v>19</v>
+      <c r="A20" s="1"/>
+      <c r="C20" s="1" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="n">
-        <v>20</v>
+      <c r="A21" s="1"/>
+      <c r="C21" s="2" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="n">
-        <v>21</v>
+      <c r="A22" s="1"/>
+      <c r="C22" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="n">
-        <v>22</v>
+      <c r="A23" s="1"/>
+      <c r="C23" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="n">
-        <v>23</v>
+      <c r="A24" s="1"/>
+      <c r="C24" s="1" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="n">
-        <v>24</v>
+      <c r="A25" s="1"/>
+      <c r="C25" s="2" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="n">
-        <v>25</v>
+      <c r="A26" s="1"/>
+      <c r="C26" s="1" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="n">
-        <v>26</v>
+      <c r="A27" s="1"/>
+      <c r="C27" s="2" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="n">
-        <v>27</v>
+      <c r="A28" s="1"/>
+      <c r="C28" s="1" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="n">
-        <v>28</v>
+      <c r="A29" s="1"/>
+      <c r="C29" s="2" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="n">
-        <v>29</v>
+      <c r="A30" s="1"/>
+      <c r="C30" s="1" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="n">
-        <v>30</v>
+      <c r="A31" s="1"/>
+      <c r="C31" s="2" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="n">
-        <v>31</v>
+      <c r="A32" s="1"/>
+      <c r="C32" s="1" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="n">
-        <v>32</v>
+      <c r="A33" s="1"/>
+      <c r="C33" s="2" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="n">
-        <v>33</v>
+      <c r="A34" s="1"/>
+      <c r="C34" s="1" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0" t="n">
-        <v>34</v>
+      <c r="A35" s="1"/>
+      <c r="C35" s="2" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="0" t="n">
-        <v>35</v>
+      <c r="A36" s="1"/>
+      <c r="C36" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="0" t="n">
-        <v>36</v>
+      <c r="A37" s="1"/>
+      <c r="C37" s="2" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="0" t="n">
-        <v>37</v>
+      <c r="A38" s="1"/>
+      <c r="C38" s="1" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="0" t="n">
-        <v>38</v>
+      <c r="A39" s="1"/>
+      <c r="C39" s="2" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="0" t="n">
-        <v>39</v>
+      <c r="A40" s="1"/>
+      <c r="C40" s="1" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="0" t="n">
-        <v>40</v>
+      <c r="A41" s="1"/>
+      <c r="C41" s="2" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="0" t="n">
-        <v>41</v>
+      <c r="A42" s="1"/>
+      <c r="C42" s="1" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="0" t="n">
-        <v>42</v>
+      <c r="A43" s="1"/>
+      <c r="C43" s="2" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="0" t="n">
-        <v>43</v>
+      <c r="A44" s="1"/>
+      <c r="C44" s="1" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="0" t="n">
-        <v>44</v>
+      <c r="A45" s="1"/>
+      <c r="C45" s="2" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="0" t="n">
-        <v>45</v>
+      <c r="A46" s="1"/>
+      <c r="C46" s="1" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="0" t="n">
-        <v>46</v>
+      <c r="A47" s="1"/>
+      <c r="C47" s="2" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="0" t="n">
-        <v>47</v>
+      <c r="A48" s="1"/>
+      <c r="C48" s="1" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="0" t="n">
-        <v>48</v>
+      <c r="A49" s="1"/>
+      <c r="C49" s="2" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="0" t="n">
-        <v>49</v>
+      <c r="A50" s="1"/>
+      <c r="C50" s="1" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="0" t="n">
-        <v>50</v>
+      <c r="A51" s="1"/>
+      <c r="C51" s="2" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="0" t="n">
-        <v>51</v>
+      <c r="A52" s="1"/>
+      <c r="C52" s="1" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="0" t="n">
-        <v>52</v>
+      <c r="A53" s="1"/>
+      <c r="C53" s="2" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="0" t="n">
-        <v>53</v>
+      <c r="A54" s="1"/>
+      <c r="C54" s="1" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="0" t="n">
-        <v>54</v>
+      <c r="A55" s="1"/>
+      <c r="C55" s="2" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="0" t="n">
-        <v>55</v>
+      <c r="A56" s="1"/>
+      <c r="C56" s="1" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="0" t="n">
-        <v>56</v>
+      <c r="A57" s="1"/>
+      <c r="C57" s="2" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="0" t="n">
-        <v>57</v>
+      <c r="A58" s="1"/>
+      <c r="C58" s="1" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="0" t="n">
-        <v>58</v>
+      <c r="A59" s="1"/>
+      <c r="C59" s="2" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="0" t="n">
-        <v>59</v>
+      <c r="A60" s="1"/>
+      <c r="C60" s="1" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="0" t="n">
-        <v>60</v>
+      <c r="A61" s="1"/>
+      <c r="C61" s="2" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="0" t="n">
-        <v>61</v>
+      <c r="A62" s="1"/>
+      <c r="C62" s="1" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="0" t="n">
-        <v>62</v>
+      <c r="A63" s="1"/>
+      <c r="C63" s="2" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="0" t="n">
-        <v>63</v>
+      <c r="A64" s="1"/>
+      <c r="C64" s="1" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="0" t="n">
-        <v>64</v>
+      <c r="A65" s="1"/>
+      <c r="C65" s="2" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="0" t="n">
-        <v>65</v>
+      <c r="A66" s="1"/>
+      <c r="C66" s="1" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="0" t="n">
-        <v>66</v>
+      <c r="A67" s="1"/>
+      <c r="C67" s="2" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="0" t="n">
-        <v>67</v>
+      <c r="A68" s="1"/>
+      <c r="C68" s="1" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="0" t="n">
-        <v>68</v>
+      <c r="A69" s="1"/>
+      <c r="C69" s="2" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="0" t="n">
-        <v>69</v>
+      <c r="A70" s="1"/>
+      <c r="C70" s="1" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="0" t="n">
-        <v>70</v>
+      <c r="A71" s="1"/>
+      <c r="C71" s="2" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="0" t="n">
-        <v>71</v>
+      <c r="A72" s="1"/>
+      <c r="C72" s="1" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="0" t="n">
-        <v>72</v>
+      <c r="A73" s="1"/>
+      <c r="C73" s="2" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="0" t="n">
-        <v>73</v>
+      <c r="A74" s="1"/>
+      <c r="C74" s="1" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="0" t="n">
-        <v>74</v>
+      <c r="A75" s="1"/>
+      <c r="C75" s="2" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="0" t="n">
-        <v>75</v>
+      <c r="A76" s="1"/>
+      <c r="C76" s="1" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="0" t="n">
-        <v>76</v>
+      <c r="A77" s="1"/>
+      <c r="C77" s="2" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="0" t="n">
-        <v>77</v>
+      <c r="A78" s="1"/>
+      <c r="C78" s="1" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="0" t="n">
-        <v>78</v>
+      <c r="A79" s="1"/>
+      <c r="C79" s="2" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="0" t="n">
-        <v>79</v>
+      <c r="A80" s="1"/>
+      <c r="C80" s="1" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="0" t="n">
-        <v>80</v>
+      <c r="A81" s="1"/>
+      <c r="C81" s="2" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="0" t="n">
-        <v>81</v>
-      </c>
+      <c r="A82" s="1"/>
     </row>
     <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="0" t="n">
-        <v>82</v>
-      </c>
+      <c r="A83" s="1"/>
     </row>
     <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="0" t="n">
-        <v>83</v>
-      </c>
+      <c r="A84" s="1"/>
     </row>
     <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="0" t="n">
-        <v>84</v>
-      </c>
+      <c r="A85" s="1"/>
     </row>
     <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="0" t="n">
-        <v>85</v>
-      </c>
+      <c r="A86" s="1"/>
     </row>
     <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="0" t="n">
-        <v>86</v>
-      </c>
+      <c r="A87" s="1"/>
     </row>
     <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="0" t="n">
-        <v>87</v>
-      </c>
+      <c r="A88" s="1"/>
     </row>
     <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="0" t="n">
-        <v>88</v>
-      </c>
+      <c r="A89" s="1"/>
     </row>
     <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="0" t="n">
-        <v>89</v>
-      </c>
+      <c r="A90" s="1"/>
     </row>
     <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="0" t="n">
-        <v>90</v>
-      </c>
+      <c r="A91" s="1"/>
     </row>
     <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="0" t="n">
-        <v>91</v>
-      </c>
+      <c r="A92" s="1"/>
     </row>
     <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="0" t="n">
-        <v>92</v>
-      </c>
+      <c r="A93" s="1"/>
     </row>
     <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="0" t="n">
-        <v>93</v>
-      </c>
+      <c r="A94" s="1"/>
     </row>
     <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="0" t="n">
-        <v>94</v>
-      </c>
+      <c r="A95" s="1"/>
     </row>
     <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="0" t="n">
-        <v>95</v>
-      </c>
+      <c r="A96" s="1"/>
     </row>
     <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="0" t="n">
-        <v>96</v>
-      </c>
+      <c r="A97" s="1"/>
     </row>
     <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="0" t="n">
-        <v>97</v>
-      </c>
+      <c r="A98" s="1"/>
     </row>
     <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="0" t="n">
-        <v>98</v>
-      </c>
+      <c r="A99" s="1"/>
     </row>
     <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="0" t="n">
-        <v>99</v>
-      </c>
+      <c r="A100" s="1"/>
     </row>
     <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="0" t="n">
-        <v>100</v>
-      </c>
+      <c r="A101" s="1"/>
     </row>
     <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="0" t="n">
-        <v>101</v>
-      </c>
+      <c r="A102" s="1"/>
     </row>
     <row r="103" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="0" t="n">
-        <v>102</v>
-      </c>
+      <c r="A103" s="1"/>
     </row>
     <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="0" t="n">
-        <v>103</v>
-      </c>
+      <c r="A104" s="1"/>
     </row>
     <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="0" t="n">
-        <v>104</v>
-      </c>
+      <c r="A105" s="1"/>
     </row>
     <row r="106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="0" t="n">
-        <v>105</v>
-      </c>
+      <c r="A106" s="1"/>
     </row>
     <row r="107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="0" t="n">
-        <v>106</v>
-      </c>
+      <c r="A107" s="1"/>
     </row>
     <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="0" t="n">
-        <v>107</v>
-      </c>
+      <c r="A108" s="1"/>
     </row>
     <row r="109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="0" t="n">
-        <v>108</v>
-      </c>
+      <c r="A109" s="1"/>
     </row>
     <row r="110" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="0" t="n">
-        <v>109</v>
-      </c>
+      <c r="A110" s="1"/>
     </row>
     <row r="111" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="0" t="n">
-        <v>110</v>
-      </c>
+      <c r="A111" s="1"/>
     </row>
     <row r="112" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="0" t="n">
-        <v>111</v>
-      </c>
+      <c r="A112" s="1"/>
     </row>
     <row r="113" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="0" t="n">
-        <v>112</v>
-      </c>
+      <c r="A113" s="1"/>
     </row>
     <row r="114" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="0" t="n">
-        <v>113</v>
-      </c>
+      <c r="A114" s="1"/>
     </row>
     <row r="115" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="0" t="n">
-        <v>114</v>
-      </c>
+      <c r="A115" s="1"/>
     </row>
     <row r="116" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="0" t="n">
-        <v>115</v>
-      </c>
+      <c r="A116" s="1"/>
     </row>
     <row r="117" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="0" t="n">
-        <v>116</v>
-      </c>
+      <c r="A117" s="1"/>
     </row>
     <row r="118" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="0" t="n">
-        <v>117</v>
-      </c>
+      <c r="A118" s="1"/>
     </row>
     <row r="119" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="0" t="n">
-        <v>118</v>
-      </c>
+      <c r="A119" s="1"/>
     </row>
     <row r="120" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="0" t="n">
-        <v>119</v>
-      </c>
+      <c r="A120" s="1"/>
     </row>
     <row r="121" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="0" t="n">
-        <v>120</v>
-      </c>
+      <c r="A121" s="1"/>
     </row>
     <row r="122" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="0" t="n">
-        <v>121</v>
-      </c>
+      <c r="A122" s="1"/>
     </row>
     <row r="123" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="0" t="n">
-        <v>122</v>
-      </c>
+      <c r="A123" s="1"/>
     </row>
     <row r="124" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A124" s="0" t="n">
-        <v>123</v>
-      </c>
+      <c r="A124" s="1"/>
     </row>
     <row r="125" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A125" s="0" t="n">
-        <v>124</v>
-      </c>
+      <c r="A125" s="1"/>
     </row>
     <row r="126" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A126" s="0" t="n">
-        <v>125</v>
-      </c>
+      <c r="A126" s="1"/>
     </row>
     <row r="127" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A127" s="0" t="n">
-        <v>126</v>
-      </c>
+      <c r="A127" s="1"/>
     </row>
     <row r="128" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A128" s="0" t="n">
-        <v>127</v>
-      </c>
+      <c r="A128" s="1"/>
     </row>
     <row r="129" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A129" s="0" t="n">
-        <v>128</v>
-      </c>
+      <c r="A129" s="1"/>
     </row>
     <row r="130" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A130" s="0" t="n">
-        <v>129</v>
-      </c>
+      <c r="A130" s="1"/>
     </row>
     <row r="131" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A131" s="0" t="n">
-        <v>130</v>
-      </c>
+      <c r="A131" s="1"/>
     </row>
     <row r="132" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A132" s="0" t="n">
-        <v>131</v>
-      </c>
+      <c r="A132" s="1"/>
     </row>
     <row r="133" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A133" s="0" t="n">
-        <v>132</v>
-      </c>
+      <c r="A133" s="1"/>
     </row>
     <row r="134" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A134" s="0" t="n">
-        <v>133</v>
-      </c>
+      <c r="A134" s="1"/>
     </row>
     <row r="135" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A135" s="0" t="n">
-        <v>134</v>
-      </c>
+      <c r="A135" s="1"/>
     </row>
     <row r="136" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A136" s="0" t="n">
-        <v>135</v>
-      </c>
+      <c r="A136" s="1"/>
     </row>
     <row r="137" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A137" s="0" t="n">
-        <v>136</v>
-      </c>
+      <c r="A137" s="1"/>
     </row>
     <row r="138" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A138" s="0" t="n">
-        <v>137</v>
-      </c>
+      <c r="A138" s="1"/>
     </row>
     <row r="139" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A139" s="0" t="n">
-        <v>138</v>
-      </c>
+      <c r="A139" s="1"/>
     </row>
     <row r="140" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A140" s="0" t="n">
-        <v>139</v>
-      </c>
+      <c r="A140" s="1"/>
     </row>
     <row r="141" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A141" s="0" t="n">
-        <v>140</v>
-      </c>
+      <c r="A141" s="1"/>
     </row>
     <row r="142" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A142" s="0" t="n">
-        <v>141</v>
-      </c>
+      <c r="A142" s="1"/>
     </row>
     <row r="143" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A143" s="0" t="n">
-        <v>142</v>
-      </c>
+      <c r="A143" s="1"/>
     </row>
     <row r="144" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A144" s="0" t="n">
-        <v>143</v>
-      </c>
+      <c r="A144" s="1"/>
     </row>
     <row r="145" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A145" s="0" t="n">
-        <v>144</v>
-      </c>
+      <c r="A145" s="1"/>
     </row>
     <row r="146" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A146" s="0" t="n">
-        <v>145</v>
-      </c>
+      <c r="A146" s="1"/>
     </row>
     <row r="147" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A147" s="0" t="n">
-        <v>146</v>
-      </c>
+      <c r="A147" s="1"/>
     </row>
     <row r="148" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A148" s="0" t="n">
-        <v>147</v>
-      </c>
+      <c r="A148" s="1"/>
     </row>
     <row r="149" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A149" s="0" t="n">
-        <v>148</v>
-      </c>
+      <c r="A149" s="1"/>
     </row>
     <row r="150" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A150" s="0" t="n">
-        <v>149</v>
-      </c>
+      <c r="A150" s="1"/>
     </row>
     <row r="151" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A151" s="0" t="n">
-        <v>150</v>
-      </c>
+      <c r="A151" s="1"/>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation allowBlank="true" error="check the species list and layer" errorStyle="stop" errorTitle="species doesn't exist" operator="equal" promptTitle="Genus_name_Layer" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C1:Z1" type="list">
+    <dataValidation allowBlank="true" error="check the species list and layer" errorStyle="stop" errorTitle="species doesn't exist" operator="equal" promptTitle="Genus_name_Layer" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="D1:AA1" type="list">
       <formula1>species_list!$A$1:$A$85</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -1515,438 +1688,438 @@
   </sheetPr>
   <dimension ref="A1:A85"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A52" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A86" activeCellId="0" sqref="A86"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F16" activeCellId="0" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="31.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="31.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>22</v>
+        <v>103</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>23</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>18</v>
+      <c r="A3" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>16</v>
+      <c r="A4" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
-        <v>24</v>
+      <c r="A5" s="1" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>25</v>
+        <v>106</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>26</v>
+        <v>107</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>27</v>
+        <v>108</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>28</v>
+        <v>109</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>29</v>
+        <v>110</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
-        <v>30</v>
+      <c r="A11" s="1" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
-        <v>31</v>
+      <c r="A12" s="1" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>32</v>
+        <v>113</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>33</v>
+        <v>114</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>34</v>
+        <v>115</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>35</v>
+        <v>116</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>36</v>
+        <v>117</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>37</v>
+        <v>118</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
-        <v>38</v>
+      <c r="A19" s="1" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
-        <v>39</v>
+      <c r="A20" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
-        <v>40</v>
+      <c r="A21" s="1" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
-        <v>41</v>
+      <c r="A22" s="1" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>42</v>
+        <v>123</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="s">
-        <v>43</v>
+      <c r="A24" s="1" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>44</v>
+        <v>125</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>45</v>
+        <v>126</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>46</v>
+        <v>127</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="s">
-        <v>19</v>
+      <c r="A28" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="s">
-        <v>20</v>
+      <c r="A29" s="1" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>47</v>
+        <v>128</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="s">
-        <v>48</v>
+      <c r="A31" s="1" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="s">
-        <v>49</v>
+      <c r="A32" s="1" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>50</v>
+        <v>131</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
-        <v>51</v>
+        <v>132</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
-        <v>52</v>
+        <v>133</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
-        <v>53</v>
+        <v>134</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
-        <v>54</v>
+        <v>135</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
-        <v>55</v>
+        <v>136</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="2" t="s">
-        <v>56</v>
+      <c r="A39" s="3" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
-        <v>57</v>
+        <v>138</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="0" t="s">
-        <v>58</v>
+      <c r="A41" s="1" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="0" t="s">
-        <v>8</v>
+      <c r="A42" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="0" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="16.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="0" t="s">
+      <c r="A43" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="0" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="16.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="0" t="s">
+    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="0" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="16.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="0" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="16.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="0" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="51" customFormat="false" ht="16.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="0" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="52" customFormat="false" ht="16.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="53" customFormat="false" ht="16.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="0" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="54" customFormat="false" ht="16.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="s">
-        <v>66</v>
+        <v>147</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="56" customFormat="false" ht="16.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="57" customFormat="false" ht="16.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="4" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="58" customFormat="false" ht="16.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="59" customFormat="false" ht="16.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="0" t="s">
-        <v>71</v>
+        <v>151</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="1" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="0" t="s">
-        <v>72</v>
+      <c r="A60" s="1" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="0" t="s">
-        <v>73</v>
+      <c r="A61" s="1" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="0" t="s">
-        <v>74</v>
+      <c r="A62" s="1" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="0" t="s">
-        <v>75</v>
+      <c r="A63" s="1" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="0" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="65" customFormat="false" ht="16.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="0" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="66" customFormat="false" ht="16.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="67" customFormat="false" ht="16.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="68" customFormat="false" ht="16.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="s">
-        <v>79</v>
+        <v>160</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="0" t="s">
-        <v>13</v>
+      <c r="A69" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="0" t="s">
-        <v>17</v>
+      <c r="A70" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="0" t="s">
-        <v>80</v>
+      <c r="A71" s="1" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="0" t="s">
-        <v>81</v>
+      <c r="A72" s="1" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="0" t="s">
-        <v>82</v>
+      <c r="A73" s="1" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="0" t="s">
-        <v>83</v>
+      <c r="A74" s="1" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="0" t="s">
-        <v>84</v>
+      <c r="A75" s="1" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="0" t="s">
-        <v>85</v>
+      <c r="A76" s="1" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="0" t="s">
-        <v>86</v>
+      <c r="A77" s="1" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="0" t="s">
-        <v>87</v>
+      <c r="A78" s="1" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="0" t="s">
-        <v>88</v>
+      <c r="A79" s="1" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="0" t="s">
-        <v>89</v>
+      <c r="A80" s="1" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="0" t="s">
-        <v>90</v>
+      <c r="A81" s="1" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="0" t="s">
-        <v>91</v>
+      <c r="A82" s="1" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="0" t="s">
-        <v>92</v>
+      <c r="A83" s="1" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="0" t="s">
-        <v>93</v>
+      <c r="A84" s="1" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="0" t="s">
-        <v>94</v>
+      <c r="A85" s="1" t="s">
+        <v>175</v>
       </c>
     </row>
   </sheetData>
